--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Tài liệu\Python\SimpleLibraryManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D015EBB9-9177-49D5-920D-9684BF1C6D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10061BD2-ECAB-42DC-A448-E93F976A05AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>username</t>
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>user</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -383,7 +386,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1234</v>
